--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_7120.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_7120.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +426,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7120</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Stephen Thomas Doheny</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +515,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +567,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +619,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4696</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -703,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -755,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_7120.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_7120.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -672,7 +672,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
